--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -464,135 +464,155 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BTC</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$29437.48</t>
+          <t xml:space="preserve">
+$0.000001140023
+</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.23%</t>
+          <t xml:space="preserve">
+49.6%
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$29369.93</t>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>WOJAK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ethereum</t>
+          <t>Wojak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1916.25</t>
+          <t xml:space="preserve">
+$0.000322912299
+</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.71%</t>
+          <t xml:space="preserve">
+35.3%
+</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$1902.74</t>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>USDT</t>
+          <t>IDEX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tether</t>
+          <t>IDEX</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t xml:space="preserve">
+$0.110044
+</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t xml:space="preserve">
+34.8%
+</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$1.0</t>
+          <t>$0.08</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>VBG</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>Vibing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$327.85</t>
+          <t xml:space="preserve">
+$0.714065
+</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t xml:space="preserve">
+25.6%
+</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$326.8</t>
+          <t>$0.57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>DIP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>Etherisc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1.00</t>
+          <t xml:space="preserve">
+$0.025914522704
+</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t xml:space="preserve">
+23.0%
+</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.0</t>
+          <t>$0.02</t>
         </is>
       </c>
     </row>

--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Crypto Tracker" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Crypto Tracker" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,6 +29,9 @@
       <name val="Times New Roman"/>
       <b val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,9 +54,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,56 +468,52 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>WOJAK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Wojak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>$0.00029</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-$0.000001140023
+69.8%
 </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-49.6%
-</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$0.00017</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>WOJAK</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wojak</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>$0.0</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-$0.000322912299
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-35.3%
+62.1%
 </t>
         </is>
       </c>
@@ -536,21 +536,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>$0.11126</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-$0.110044
+37.9%
 </t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-34.8%
-</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$0.08</t>
+          <t>$0.08068</t>
         </is>
       </c>
     </row>
@@ -567,21 +565,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>$0.69468</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-$0.714065
+24.7%
 </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-25.6%
-</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$0.57</t>
+          <t>$0.55708</t>
         </is>
       </c>
     </row>
@@ -598,21 +594,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>$0.02558</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-$0.025914522704
+22.7%
 </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-23.0%
-</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.02085</t>
         </is>
       </c>
     </row>

--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -31,7 +33,7 @@
       <sz val="12"/>
     </font>
     <font>
-      <color rgb="0000FF00"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,10 +56,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -468,145 +471,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WOJAK</t>
+          <t>CDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wojak</t>
+          <t>Blox</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.00029</t>
+          <t>$0.31629</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-69.8%
+88.9%
 </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$0.00017</t>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>$0.16744</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>WOJAK</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Wojak</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$0.00033</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-62.1%
+78.8%
 </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$0.0</t>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>$0.00019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IDEX</t>
+          <t>DINO</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IDEX</t>
+          <t>DinoLFG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$0.11126</t>
+          <t>$0.0335</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-37.9%
+72.9%
 </t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$0.08068</t>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>$0.01938</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VBG</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vibing</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$0.69468</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-24.7%
+64.3%
 </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>$0.55708</t>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DIP</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Etherisc</t>
+          <t>MXC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$0.02558</t>
+          <t>$0.02397</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-22.7%
+38.2%
 </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$0.02085</t>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>$0.01734</t>
         </is>
       </c>
     </row>

--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -471,29 +471,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CDT</t>
+          <t>DINO</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Blox</t>
+          <t>DinoLFG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$0.31629</t>
+          <t>$0.089</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-88.9%
+257.5%
 </t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>$0.16744</t>
+          <t>$0.0249</t>
         </is>
       </c>
     </row>
@@ -510,106 +510,106 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$0.00033</t>
+          <t>$0.0008</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-78.8%
+151.7%
 </t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>$0.00019</t>
+          <t>$0.0003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DINO</t>
+          <t>RAD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DinoLFG</t>
+          <t>Radicle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$0.0335</t>
+          <t>$4.0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-72.9%
+56.9%
 </t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>$0.01938</t>
+          <t>$2.5494</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>SPA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Sperax</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$0.014</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-64.3%
+47.7%
 </t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$0.0095</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>PEPES</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MXC</t>
+          <t>McPepe's</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$0.02397</t>
+          <t>$0.0001</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-38.2%
+39.0%
 </t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>$0.01734</t>
+          <t>$0.0001</t>
         </is>
       </c>
     </row>

--- a/CryptoReport.xlsx
+++ b/CryptoReport.xlsx
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_-"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,10 +30,13 @@
     <font>
       <name val="Times New Roman"/>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="14"/>
     </font>
     <font>
-      <color rgb="00008000"/>
+      <color rgb="00838B8B"/>
+    </font>
+    <font>
+      <color rgb="0000C957"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,11 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,11 +438,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
     <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -469,147 +473,147 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DINO</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>DinoLFG</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>$0.089</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Pepe</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>$0.0</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-257.5%
+69.3%
 </t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>$0.0249</t>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>$0.0</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>WOJAK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Wojak</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>$0.0008</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-151.7%
+56.4%
 </t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>$0.0003</t>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>$0.0005</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RAD</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Radicle</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$4.0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>4TOKEN</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Ignore Fud</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>$0.0005</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-56.9%
+53.2%
 </t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>$2.5494</t>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>$0.0003</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>SPA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sperax</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$0.014</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>PIP</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>PIP</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>$0.2115</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-47.7%
+30.0%
 </t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>$0.0095</t>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>$0.1627</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>PEPES</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>McPepe's</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$0.0001</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>TABOO</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Taboo</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>$0.0052</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-39.0%
+26.8%
 </t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>$0.0001</t>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>$0.0041</t>
         </is>
       </c>
     </row>
